--- a/Feature-Analysis/Resize Feature/s_25_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_25_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.67707175924</v>
+        <v>738157.67707175924</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.67745370371</v>
+        <v>738157.67745370371</v>
       </c>
       <c r="C3" s="0">
         <v>33.000002056360245</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.67814814812</v>
+        <v>738157.67814814812</v>
       </c>
       <c r="C4" s="0">
         <v>92.999998480081558</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.67848379631</v>
+        <v>738157.67848379631</v>
       </c>
       <c r="C5" s="0">
         <v>122.00000211596489</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.67883101851</v>
+        <v>738157.67883101851</v>
       </c>
       <c r="C6" s="0">
         <v>152.00000032782555</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.67917824071</v>
+        <v>738157.67917824071</v>
       </c>
       <c r="C7" s="0">
         <v>181.9999985396862</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.67954861117</v>
+        <v>738157.67954861117</v>
       </c>
       <c r="C8" s="0">
         <v>214.00000602006912</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.67988425924</v>
+        <v>738157.67988425924</v>
       </c>
       <c r="C9" s="0">
         <v>242.99999959766865</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.68032407411</v>
+        <v>738157.68032407411</v>
       </c>
       <c r="C10" s="0">
         <v>281.00000470876694</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.68061342591</v>
+        <v>738157.68061342591</v>
       </c>
       <c r="C11" s="0">
         <v>305.99999986588955</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.68092592596</v>
+        <v>738157.68092592596</v>
       </c>
       <c r="C12" s="0">
         <v>333.00000429153442</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.68127314816</v>
+        <v>738157.68127314816</v>
       </c>
       <c r="C13" s="0">
         <v>363.00000250339508</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.68160879635</v>
+        <v>738157.68160879635</v>
       </c>
       <c r="C14" s="0">
         <v>392.00000613927841</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.68203703698</v>
+        <v>738157.68203703698</v>
       </c>
       <c r="C15" s="0">
         <v>428.99999655783176</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.68229166663</v>
+        <v>738157.68229166663</v>
       </c>
       <c r="C16" s="0">
         <v>450.99999792873859</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.68299768516</v>
+        <v>738157.68299768516</v>
       </c>
       <c r="C17" s="0">
         <v>511.99999898672104</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.68334490736</v>
+        <v>738157.68334490736</v>
       </c>
       <c r="C18" s="0">
         <v>541.9999971985817</v>
@@ -13502,7 +13502,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.68370370369</v>
+        <v>738157.68370370369</v>
       </c>
       <c r="C19" s="0">
         <v>573.00000004470348</v>
@@ -14197,7 +14197,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.68405092589</v>
+        <v>738157.68405092589</v>
       </c>
       <c r="C20" s="0">
         <v>602.99999825656414</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.68437499995</v>
+        <v>738157.68437499995</v>
       </c>
       <c r="C21" s="0">
         <v>630.99999725818634</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.68466435187</v>
+        <v>738157.68466435187</v>
       </c>
       <c r="C22" s="0">
         <v>656.00000247359276</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.68498842593</v>
+        <v>738157.68498842593</v>
       </c>
       <c r="C23" s="0">
         <v>684.00000147521496</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.68534722226</v>
+        <v>738157.68534722226</v>
       </c>
       <c r="C24" s="0">
         <v>715.00000432133675</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.68568287033</v>
+        <v>738157.68568287033</v>
       </c>
       <c r="C25" s="0">
         <v>743.99999789893627</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.68603009265</v>
+        <v>738157.68603009265</v>
       </c>
       <c r="C26" s="0">
         <v>774.00000616908073</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.68640046299</v>
+        <v>738157.68640046299</v>
       </c>
       <c r="C27" s="0">
         <v>806.00000359117985</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.68708333338</v>
+        <v>738157.68708333338</v>
       </c>
       <c r="C28" s="0">
         <v>865.00000543892384</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.68743055558</v>
+        <v>738157.68743055558</v>
       </c>
       <c r="C29" s="0">
         <v>895.00000365078449</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.68777777778</v>
+        <v>738157.68777777778</v>
       </c>
       <c r="C30" s="0">
         <v>925.00000186264515</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.68813657411</v>
+        <v>738157.68813657411</v>
       </c>
       <c r="C31" s="0">
         <v>956.00000470876694</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.68846064818</v>
+        <v>738157.68846064818</v>
       </c>
       <c r="C32" s="0">
         <v>984.00000371038914</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.68880787038</v>
+        <v>738157.68880787038</v>
       </c>
       <c r="C33" s="0">
         <v>1014.0000019222498</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.68916666671</v>
+        <v>738157.68916666671</v>
       </c>
       <c r="C34" s="0">
         <v>1045.0000047683716</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.68951388891</v>
+        <v>738157.68951388891</v>
       </c>
       <c r="C35" s="0">
         <v>1075.0000029802322</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.68988425925</v>
+        <v>738157.68988425925</v>
       </c>
       <c r="C36" s="0">
         <v>1107.0000004023314</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.69021990744</v>
+        <v>738157.69021990744</v>
       </c>
       <c r="C37" s="0">
         <v>1136.0000040382147</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.69056712964</v>
+        <v>738157.69056712964</v>
       </c>
       <c r="C38" s="0">
         <v>1166.0000022500753</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.69091435184</v>
+        <v>738157.69091435184</v>
       </c>
       <c r="C39" s="0">
         <v>1196.000000461936</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.6912384259</v>
+        <v>738157.6912384259</v>
       </c>
       <c r="C40" s="0">
         <v>1223.9999994635582</v>
